--- a/_data/2024/2024_candidates_primary_results.xlsx
+++ b/_data/2024/2024_candidates_primary_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbenson/Documents/Repos/blog-primary-results/blog/_data/2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbenson/Documents/Repos/competitive-elections/blog/_data/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1EDEA-37D8-4246-8423-58BF2B405D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44521287-5F6E-0444-A8E8-C9A91A1056C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="District &amp; County Candidates" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'District &amp; County Candidates'!$A$1:$I$414</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'District &amp; County Candidates'!$A$1:$I$415</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="1196">
   <si>
     <t>Address</t>
   </si>
@@ -3618,6 +3618,15 @@
   </si>
   <si>
     <t>winner</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER THRASHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1296 Drift Rd., Westport</t>
+  </si>
+  <si>
+    <t>Westport School Committee Member</t>
   </si>
 </sst>
 </file>
@@ -3970,10 +3979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J414"/>
+  <dimension ref="A1:J415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E328" sqref="E328"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7489,22 +7498,31 @@
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>178</v>
+        <v>1193</v>
+      </c>
+      <c r="D130" s="4">
+        <v>213</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>763</v>
+        <v>1194</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1195</v>
       </c>
       <c r="J130">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -7512,31 +7530,22 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C131" t="s">
-        <v>180</v>
-      </c>
-      <c r="D131" s="4">
-        <v>854</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="F131" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
-        <v>764</v>
-      </c>
-      <c r="I131" t="s">
-        <v>1084</v>
+        <v>763</v>
       </c>
       <c r="J131">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -7547,13 +7556,13 @@
         <v>179</v>
       </c>
       <c r="C132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D132" s="4">
-        <v>1894</v>
+        <v>854</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" t="s">
         <v>3</v>
@@ -7562,10 +7571,10 @@
         <v>4</v>
       </c>
       <c r="H132" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I132" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
       <c r="J132">
         <v>80</v>
@@ -7579,19 +7588,25 @@
         <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1894</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H133" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I133" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="J133">
         <v>80</v>
@@ -7602,25 +7617,25 @@
         <v>126</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F134" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G134" t="s">
         <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I134" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="J134">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -7628,25 +7643,25 @@
         <v>126</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C135" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F135" t="s">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I135" t="s">
         <v>1057</v>
       </c>
       <c r="J135">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -7654,25 +7669,25 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F136" t="s">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I136" t="s">
         <v>1057</v>
       </c>
       <c r="J136">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -7680,10 +7695,10 @@
         <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F137" t="s">
         <v>1</v>
@@ -7692,13 +7707,13 @@
         <v>2</v>
       </c>
       <c r="H137" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I137" t="s">
         <v>1057</v>
       </c>
       <c r="J137">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -7709,16 +7724,19 @@
         <v>189</v>
       </c>
       <c r="C138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F138" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>771</v>
+        <v>770</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1057</v>
       </c>
       <c r="J138">
         <v>84</v>
@@ -7729,25 +7747,22 @@
         <v>126</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F139" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H139" t="s">
-        <v>772</v>
-      </c>
-      <c r="I139" t="s">
-        <v>650</v>
+        <v>771</v>
       </c>
       <c r="J139">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -7755,10 +7770,10 @@
         <v>126</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F140" t="s">
         <v>1</v>
@@ -7767,13 +7782,13 @@
         <v>2</v>
       </c>
       <c r="H140" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I140" t="s">
         <v>650</v>
       </c>
       <c r="J140">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -7781,10 +7796,10 @@
         <v>126</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F141" t="s">
         <v>1</v>
@@ -7793,10 +7808,13 @@
         <v>2</v>
       </c>
       <c r="H141" t="s">
-        <v>774</v>
+        <v>773</v>
+      </c>
+      <c r="I141" t="s">
+        <v>650</v>
       </c>
       <c r="J141">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -7804,10 +7822,10 @@
         <v>126</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F142" t="s">
         <v>1</v>
@@ -7816,13 +7834,10 @@
         <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>775</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1086</v>
+        <v>774</v>
       </c>
       <c r="J142">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -7830,10 +7845,10 @@
         <v>126</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F143" t="s">
         <v>1</v>
@@ -7842,13 +7857,13 @@
         <v>2</v>
       </c>
       <c r="H143" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I143" t="s">
-        <v>650</v>
+        <v>1086</v>
       </c>
       <c r="J143">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -7859,19 +7874,19 @@
         <v>197</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F144" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I144" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J144">
         <v>89</v>
@@ -7882,25 +7897,25 @@
         <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F145" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I145" t="s">
-        <v>1049</v>
+        <v>648</v>
       </c>
       <c r="J145">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -7911,19 +7926,19 @@
         <v>200</v>
       </c>
       <c r="C146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F146" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I146" t="s">
-        <v>1087</v>
+        <v>1049</v>
       </c>
       <c r="J146">
         <v>90</v>
@@ -7937,16 +7952,19 @@
         <v>200</v>
       </c>
       <c r="C147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H147" t="s">
-        <v>780</v>
+        <v>779</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1087</v>
       </c>
       <c r="J147">
         <v>90</v>
@@ -7957,25 +7975,22 @@
         <v>126</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F148" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H148" t="s">
-        <v>781</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1088</v>
+        <v>780</v>
       </c>
       <c r="J148">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -7983,10 +7998,10 @@
         <v>126</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F149" t="s">
         <v>1</v>
@@ -7995,13 +8010,13 @@
         <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I149" t="s">
-        <v>650</v>
+        <v>1088</v>
       </c>
       <c r="J149">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -8009,25 +8024,25 @@
         <v>126</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C150" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F150" t="s">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I150" t="s">
-        <v>1089</v>
+        <v>650</v>
       </c>
       <c r="J150">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -8035,22 +8050,25 @@
         <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C151" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1089</v>
       </c>
       <c r="J151">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -8058,31 +8076,22 @@
         <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C152" t="s">
-        <v>213</v>
-      </c>
-      <c r="D152" s="4">
-        <v>1508</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="F152" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G152" t="s">
         <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>785</v>
-      </c>
-      <c r="I152" t="s">
-        <v>1066</v>
+        <v>784</v>
       </c>
       <c r="J152">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -8093,13 +8102,13 @@
         <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D153" s="4">
-        <v>1778</v>
+        <v>1508</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
@@ -8108,10 +8117,10 @@
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I153" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="J153">
         <v>95</v>
@@ -8122,22 +8131,31 @@
         <v>126</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C154" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1778</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G154" t="s">
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>787</v>
+        <v>786</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1074</v>
       </c>
       <c r="J154">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -8145,10 +8163,10 @@
         <v>126</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F155" t="s">
         <v>1</v>
@@ -8157,13 +8175,10 @@
         <v>2</v>
       </c>
       <c r="H155" t="s">
-        <v>788</v>
-      </c>
-      <c r="I155" t="s">
-        <v>650</v>
+        <v>787</v>
       </c>
       <c r="J155">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -8171,10 +8186,10 @@
         <v>126</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F156" t="s">
         <v>1</v>
@@ -8183,13 +8198,13 @@
         <v>2</v>
       </c>
       <c r="H156" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I156" t="s">
-        <v>126</v>
+        <v>650</v>
       </c>
       <c r="J156">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -8197,10 +8212,10 @@
         <v>126</v>
       </c>
       <c r="B157" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F157" t="s">
         <v>1</v>
@@ -8209,13 +8224,13 @@
         <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I157" t="s">
-        <v>1057</v>
+        <v>126</v>
       </c>
       <c r="J157">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -8223,16 +8238,10 @@
         <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C158" t="s">
-        <v>224</v>
-      </c>
-      <c r="D158" s="4">
-        <v>1581</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F158" t="s">
         <v>1</v>
@@ -8241,13 +8250,13 @@
         <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I158" t="s">
-        <v>650</v>
+        <v>1057</v>
       </c>
       <c r="J158">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -8258,25 +8267,25 @@
         <v>223</v>
       </c>
       <c r="C159" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D159" s="4">
-        <v>1082</v>
+        <v>1581</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G159" t="s">
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I159" t="s">
-        <v>1090</v>
+        <v>650</v>
       </c>
       <c r="J159">
         <v>100</v>
@@ -8287,25 +8296,31 @@
         <v>126</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1082</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F160" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G160" t="s">
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I160" t="s">
-        <v>1057</v>
+        <v>1090</v>
       </c>
       <c r="J160">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -8313,10 +8328,10 @@
         <v>126</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C161" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F161" t="s">
         <v>1</v>
@@ -8325,13 +8340,13 @@
         <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I161" t="s">
-        <v>650</v>
+        <v>1057</v>
       </c>
       <c r="J161">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -8339,10 +8354,10 @@
         <v>126</v>
       </c>
       <c r="B162" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F162" t="s">
         <v>1</v>
@@ -8351,13 +8366,13 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I162" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J162">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -8365,25 +8380,25 @@
         <v>126</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C163" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F163" t="s">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H163" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I163" t="s">
-        <v>648</v>
+        <v>1057</v>
       </c>
       <c r="J163">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -8394,19 +8409,19 @@
         <v>232</v>
       </c>
       <c r="C164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F164" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H164" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I164" t="s">
-        <v>1091</v>
+        <v>648</v>
       </c>
       <c r="J164">
         <v>104</v>
@@ -8417,22 +8432,25 @@
         <v>126</v>
       </c>
       <c r="B165" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F165" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G165" t="s">
         <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>798</v>
+        <v>797</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1091</v>
       </c>
       <c r="J165">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -8440,22 +8458,22 @@
         <v>126</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F166" t="s">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J166">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -8463,25 +8481,22 @@
         <v>126</v>
       </c>
       <c r="B167" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C167" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F167" t="s">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H167" t="s">
-        <v>800</v>
-      </c>
-      <c r="I167" t="s">
-        <v>126</v>
+        <v>799</v>
       </c>
       <c r="J167">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -8489,10 +8504,10 @@
         <v>126</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F168" t="s">
         <v>1</v>
@@ -8501,13 +8516,13 @@
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I168" t="s">
-        <v>1073</v>
+        <v>126</v>
       </c>
       <c r="J168">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -8518,19 +8533,19 @@
         <v>241</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F169" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I169" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="J169">
         <v>108</v>
@@ -8541,22 +8556,25 @@
         <v>126</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C170" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F170" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G170" t="s">
         <v>2</v>
       </c>
       <c r="H170" t="s">
-        <v>803</v>
+        <v>802</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1092</v>
       </c>
       <c r="J170">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -8564,10 +8582,10 @@
         <v>126</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F171" t="s">
         <v>1</v>
@@ -8576,10 +8594,10 @@
         <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J171">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -8587,10 +8605,10 @@
         <v>126</v>
       </c>
       <c r="B172" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C172" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F172" t="s">
         <v>1</v>
@@ -8599,13 +8617,10 @@
         <v>2</v>
       </c>
       <c r="H172" t="s">
-        <v>805</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1057</v>
+        <v>804</v>
       </c>
       <c r="J172">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -8613,10 +8628,10 @@
         <v>126</v>
       </c>
       <c r="B173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C173" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F173" t="s">
         <v>1</v>
@@ -8625,13 +8640,13 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I173" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="J173">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -8639,10 +8654,10 @@
         <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C174" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F174" t="s">
         <v>1</v>
@@ -8651,13 +8666,13 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I174" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="J174">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -8665,10 +8680,10 @@
         <v>126</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C175" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F175" t="s">
         <v>1</v>
@@ -8677,13 +8692,13 @@
         <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I175" t="s">
         <v>1057</v>
       </c>
       <c r="J175">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -8691,16 +8706,10 @@
         <v>126</v>
       </c>
       <c r="B176" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C176" t="s">
-        <v>257</v>
-      </c>
-      <c r="D176" s="4">
-        <v>1768</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F176" t="s">
         <v>1</v>
@@ -8709,10 +8718,13 @@
         <v>2</v>
       </c>
       <c r="H176" t="s">
-        <v>809</v>
+        <v>808</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1057</v>
       </c>
       <c r="J176">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -8723,22 +8735,22 @@
         <v>256</v>
       </c>
       <c r="C177" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D177" s="4">
-        <v>1523</v>
+        <v>1768</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G177" t="s">
         <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J177">
         <v>115</v>
@@ -8749,22 +8761,28 @@
         <v>126</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C178" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="D178" s="4">
+        <v>1523</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F178" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G178" t="s">
         <v>2</v>
       </c>
       <c r="H178" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J178">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -8772,10 +8790,10 @@
         <v>126</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C179" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F179" t="s">
         <v>1</v>
@@ -8784,13 +8802,10 @@
         <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>812</v>
-      </c>
-      <c r="I179" t="s">
-        <v>1057</v>
+        <v>811</v>
       </c>
       <c r="J179">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -8798,22 +8813,25 @@
         <v>126</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C180" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F180" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G180" t="s">
         <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>813</v>
+        <v>812</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1057</v>
       </c>
       <c r="J180">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -8821,22 +8839,22 @@
         <v>126</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C181" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F181" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G181" t="s">
         <v>2</v>
       </c>
       <c r="H181" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J181">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -8844,10 +8862,10 @@
         <v>126</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F182" t="s">
         <v>1</v>
@@ -8856,13 +8874,10 @@
         <v>2</v>
       </c>
       <c r="H182" t="s">
-        <v>815</v>
-      </c>
-      <c r="I182" t="s">
-        <v>650</v>
+        <v>814</v>
       </c>
       <c r="J182">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -8873,16 +8888,19 @@
         <v>67</v>
       </c>
       <c r="C183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F183" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H183" t="s">
-        <v>816</v>
+        <v>815</v>
+      </c>
+      <c r="I183" t="s">
+        <v>650</v>
       </c>
       <c r="J183">
         <v>120</v>
@@ -8893,22 +8911,22 @@
         <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C184" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F184" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J184">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -8916,10 +8934,10 @@
         <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C185" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F185" t="s">
         <v>1</v>
@@ -8928,13 +8946,10 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>818</v>
-      </c>
-      <c r="I185" t="s">
-        <v>650</v>
+        <v>817</v>
       </c>
       <c r="J185">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -8942,10 +8957,10 @@
         <v>126</v>
       </c>
       <c r="B186" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F186" t="s">
         <v>1</v>
@@ -8954,10 +8969,13 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>819</v>
+        <v>818</v>
+      </c>
+      <c r="I186" t="s">
+        <v>650</v>
       </c>
       <c r="J186">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -8965,16 +8983,10 @@
         <v>126</v>
       </c>
       <c r="B187" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C187" t="s">
-        <v>272</v>
-      </c>
-      <c r="D187" s="4">
-        <v>4047</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="F187" t="s">
         <v>1</v>
@@ -8983,13 +8995,10 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>820</v>
-      </c>
-      <c r="I187" t="s">
-        <v>1093</v>
+        <v>819</v>
       </c>
       <c r="J187">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -9000,22 +9009,25 @@
         <v>76</v>
       </c>
       <c r="C188" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D188" s="4">
-        <v>1521</v>
+        <v>4047</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G188" t="s">
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>821</v>
+        <v>820</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1093</v>
       </c>
       <c r="J188">
         <v>124</v>
@@ -9026,25 +9038,28 @@
         <v>126</v>
       </c>
       <c r="B189" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="C189" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1521</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G189" t="s">
         <v>2</v>
       </c>
       <c r="H189" t="s">
-        <v>822</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1094</v>
+        <v>821</v>
       </c>
       <c r="J189">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -9052,16 +9067,10 @@
         <v>126</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C190" t="s">
-        <v>277</v>
-      </c>
-      <c r="D190" s="4">
-        <v>4527</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="F190" t="s">
         <v>1</v>
@@ -9070,13 +9079,13 @@
         <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I190" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J190">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -9087,22 +9096,25 @@
         <v>276</v>
       </c>
       <c r="C191" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D191" s="4">
-        <v>903</v>
+        <v>4527</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G191" t="s">
         <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>824</v>
+        <v>823</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1095</v>
       </c>
       <c r="J191">
         <v>126</v>
@@ -9113,25 +9125,28 @@
         <v>126</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C192" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="D192" s="4">
+        <v>903</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F192" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G192" t="s">
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>825</v>
-      </c>
-      <c r="I192" t="s">
-        <v>650</v>
+        <v>824</v>
       </c>
       <c r="J192">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -9139,16 +9154,10 @@
         <v>126</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C193" t="s">
-        <v>282</v>
-      </c>
-      <c r="D193" s="4">
-        <v>2748</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="F193" t="s">
         <v>1</v>
@@ -9157,13 +9166,13 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I193" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J193">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -9174,22 +9183,25 @@
         <v>281</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D194" s="4">
-        <v>2038</v>
+        <v>2748</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G194" t="s">
         <v>2</v>
       </c>
       <c r="H194" t="s">
-        <v>827</v>
+        <v>826</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1057</v>
       </c>
       <c r="J194">
         <v>128</v>
@@ -9203,19 +9215,22 @@
         <v>281</v>
       </c>
       <c r="C195" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="D195" s="4">
+        <v>2038</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>828</v>
-      </c>
-      <c r="I195" t="s">
-        <v>1096</v>
+        <v>827</v>
       </c>
       <c r="J195">
         <v>128</v>
@@ -9229,16 +9244,19 @@
         <v>281</v>
       </c>
       <c r="C196" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H196" t="s">
-        <v>829</v>
+        <v>828</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1096</v>
       </c>
       <c r="J196">
         <v>128</v>
@@ -9249,25 +9267,22 @@
         <v>126</v>
       </c>
       <c r="B197" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C197" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F197" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
-        <v>830</v>
-      </c>
-      <c r="I197" t="s">
-        <v>650</v>
+        <v>829</v>
       </c>
       <c r="J197">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -9275,28 +9290,25 @@
         <v>126</v>
       </c>
       <c r="B198" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
-      </c>
-      <c r="D198" s="4">
-        <v>1064</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="F198" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G198" t="s">
         <v>2</v>
       </c>
       <c r="H198" t="s">
-        <v>831</v>
+        <v>830</v>
+      </c>
+      <c r="I198" t="s">
+        <v>650</v>
       </c>
       <c r="J198">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -9307,13 +9319,13 @@
         <v>288</v>
       </c>
       <c r="C199" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D199" s="4">
-        <v>5181</v>
+        <v>1064</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
@@ -9322,10 +9334,7 @@
         <v>2</v>
       </c>
       <c r="H199" t="s">
-        <v>832</v>
-      </c>
-      <c r="I199" t="s">
-        <v>1097</v>
+        <v>831</v>
       </c>
       <c r="J199">
         <v>130</v>
@@ -9339,19 +9348,25 @@
         <v>288</v>
       </c>
       <c r="C200" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="D200" s="4">
+        <v>5181</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I200" t="s">
-        <v>1049</v>
+        <v>1097</v>
       </c>
       <c r="J200">
         <v>130</v>
@@ -9362,31 +9377,25 @@
         <v>126</v>
       </c>
       <c r="B201" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C201" t="s">
-        <v>293</v>
-      </c>
-      <c r="D201" s="4">
-        <v>2609</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="F201" t="s">
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I201" t="s">
-        <v>1098</v>
+        <v>1049</v>
       </c>
       <c r="J201">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -9397,10 +9406,10 @@
         <v>292</v>
       </c>
       <c r="C202" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D202" s="4">
-        <v>2543</v>
+        <v>2609</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>3</v>
@@ -9412,10 +9421,10 @@
         <v>2</v>
       </c>
       <c r="H202" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I202" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J202">
         <v>131</v>
@@ -9429,13 +9438,13 @@
         <v>292</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D203" s="4">
-        <v>3424</v>
+        <v>2543</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
@@ -9444,10 +9453,10 @@
         <v>2</v>
       </c>
       <c r="H203" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I203" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J203">
         <v>131</v>
@@ -9458,25 +9467,31 @@
         <v>126</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C204" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="D204" s="4">
+        <v>3424</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G204" t="s">
         <v>2</v>
       </c>
       <c r="H204" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I204" t="s">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="J204">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -9484,10 +9499,10 @@
         <v>126</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C205" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F205" t="s">
         <v>1</v>
@@ -9496,13 +9511,13 @@
         <v>2</v>
       </c>
       <c r="H205" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I205" t="s">
         <v>650</v>
       </c>
       <c r="J205">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -9510,10 +9525,10 @@
         <v>126</v>
       </c>
       <c r="B206" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C206" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F206" t="s">
         <v>1</v>
@@ -9522,13 +9537,13 @@
         <v>2</v>
       </c>
       <c r="H206" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I206" t="s">
         <v>650</v>
       </c>
       <c r="J206">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -9536,10 +9551,10 @@
         <v>126</v>
       </c>
       <c r="B207" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C207" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F207" t="s">
         <v>1</v>
@@ -9548,13 +9563,13 @@
         <v>2</v>
       </c>
       <c r="H207" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I207" t="s">
-        <v>1101</v>
+        <v>650</v>
       </c>
       <c r="J207">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
@@ -9562,10 +9577,10 @@
         <v>126</v>
       </c>
       <c r="B208" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C208" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F208" t="s">
         <v>1</v>
@@ -9574,13 +9589,13 @@
         <v>2</v>
       </c>
       <c r="H208" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I208" t="s">
-        <v>650</v>
+        <v>1101</v>
       </c>
       <c r="J208">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -9591,19 +9606,19 @@
         <v>304</v>
       </c>
       <c r="C209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F209" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I209" t="s">
-        <v>1102</v>
+        <v>650</v>
       </c>
       <c r="J209">
         <v>136</v>
@@ -9614,31 +9629,25 @@
         <v>126</v>
       </c>
       <c r="B210" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C210" t="s">
-        <v>308</v>
-      </c>
-      <c r="D210" s="4">
-        <v>1010</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="F210" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H210" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I210" t="s">
-        <v>650</v>
+        <v>1102</v>
       </c>
       <c r="J210">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -9649,22 +9658,25 @@
         <v>307</v>
       </c>
       <c r="C211" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D211" s="4">
-        <v>1191</v>
+        <v>1010</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F211" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G211" t="s">
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>844</v>
+        <v>843</v>
+      </c>
+      <c r="I211" t="s">
+        <v>650</v>
       </c>
       <c r="J211">
         <v>137</v>
@@ -9678,13 +9690,13 @@
         <v>307</v>
       </c>
       <c r="C212" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D212" s="4">
-        <v>313</v>
+        <v>1191</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
         <v>3</v>
@@ -9693,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J212">
         <v>137</v>
@@ -9707,19 +9719,22 @@
         <v>307</v>
       </c>
       <c r="C213" t="s">
-        <v>311</v>
+        <v>310</v>
+      </c>
+      <c r="D213" s="4">
+        <v>313</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F213" t="s">
         <v>3</v>
       </c>
       <c r="G213" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>846</v>
-      </c>
-      <c r="I213" t="s">
-        <v>1062</v>
+        <v>845</v>
       </c>
       <c r="J213">
         <v>137</v>
@@ -9730,22 +9745,25 @@
         <v>126</v>
       </c>
       <c r="B214" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C214" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F214" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H214" t="s">
-        <v>847</v>
+        <v>846</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1062</v>
       </c>
       <c r="J214">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -9756,19 +9774,16 @@
         <v>312</v>
       </c>
       <c r="C215" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F215" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>848</v>
-      </c>
-      <c r="I215" t="s">
-        <v>648</v>
+        <v>847</v>
       </c>
       <c r="J215">
         <v>138</v>
@@ -9782,16 +9797,19 @@
         <v>312</v>
       </c>
       <c r="C216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F216" t="s">
         <v>3</v>
       </c>
       <c r="G216" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H216" t="s">
-        <v>849</v>
+        <v>848</v>
+      </c>
+      <c r="I216" t="s">
+        <v>648</v>
       </c>
       <c r="J216">
         <v>138</v>
@@ -9802,25 +9820,22 @@
         <v>126</v>
       </c>
       <c r="B217" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C217" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F217" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G217" t="s">
         <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>850</v>
-      </c>
-      <c r="I217" t="s">
-        <v>1103</v>
+        <v>849</v>
       </c>
       <c r="J217">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -9828,25 +9843,25 @@
         <v>126</v>
       </c>
       <c r="B218" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C218" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F218" t="s">
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I218" t="s">
-        <v>650</v>
+        <v>1103</v>
       </c>
       <c r="J218">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -9854,25 +9869,25 @@
         <v>126</v>
       </c>
       <c r="B219" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C219" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F219" t="s">
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H219" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I219" t="s">
         <v>650</v>
       </c>
       <c r="J219">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
@@ -9883,19 +9898,19 @@
         <v>320</v>
       </c>
       <c r="C220" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F220" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H220" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I220" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J220">
         <v>141</v>
@@ -9906,25 +9921,25 @@
         <v>126</v>
       </c>
       <c r="B221" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C221" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F221" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G221" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H221" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I221" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J221">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
@@ -9932,10 +9947,10 @@
         <v>126</v>
       </c>
       <c r="B222" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C222" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F222" t="s">
         <v>1</v>
@@ -9944,13 +9959,13 @@
         <v>2</v>
       </c>
       <c r="H222" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I222" t="s">
         <v>650</v>
       </c>
       <c r="J222">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
@@ -9958,16 +9973,10 @@
         <v>126</v>
       </c>
       <c r="B223" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C223" t="s">
-        <v>328</v>
-      </c>
-      <c r="D223" s="4">
-        <v>3472</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="F223" t="s">
         <v>1</v>
@@ -9976,13 +9985,13 @@
         <v>2</v>
       </c>
       <c r="H223" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I223" t="s">
         <v>650</v>
       </c>
       <c r="J223">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
@@ -9993,22 +10002,25 @@
         <v>327</v>
       </c>
       <c r="C224" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D224" s="4">
-        <v>3431</v>
+        <v>3472</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G224" t="s">
         <v>2</v>
       </c>
       <c r="H224" t="s">
-        <v>857</v>
+        <v>856</v>
+      </c>
+      <c r="I224" t="s">
+        <v>650</v>
       </c>
       <c r="J224">
         <v>144</v>
@@ -10019,25 +10031,28 @@
         <v>126</v>
       </c>
       <c r="B225" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C225" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="D225" s="4">
+        <v>3431</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F225" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G225" t="s">
         <v>2</v>
       </c>
       <c r="H225" t="s">
-        <v>858</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1057</v>
+        <v>857</v>
       </c>
       <c r="J225">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
@@ -10045,16 +10060,10 @@
         <v>126</v>
       </c>
       <c r="B226" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C226" t="s">
-        <v>333</v>
-      </c>
-      <c r="D226" s="4">
-        <v>5787</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="F226" t="s">
         <v>1</v>
@@ -10063,13 +10072,13 @@
         <v>2</v>
       </c>
       <c r="H226" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I226" t="s">
         <v>1057</v>
       </c>
       <c r="J226">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
@@ -10080,22 +10089,25 @@
         <v>332</v>
       </c>
       <c r="C227" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D227" s="4">
-        <v>2606</v>
+        <v>5787</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G227" t="s">
         <v>2</v>
       </c>
       <c r="H227" t="s">
-        <v>860</v>
+        <v>859</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1057</v>
       </c>
       <c r="J227">
         <v>146</v>
@@ -10106,31 +10118,28 @@
         <v>126</v>
       </c>
       <c r="B228" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C228" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D228" s="4">
-        <v>1493</v>
+        <v>2606</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F228" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G228" t="s">
         <v>2</v>
       </c>
       <c r="H228" t="s">
-        <v>861</v>
-      </c>
-      <c r="I228" t="s">
-        <v>650</v>
+        <v>860</v>
       </c>
       <c r="J228">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
@@ -10141,22 +10150,25 @@
         <v>335</v>
       </c>
       <c r="C229" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D229" s="4">
-        <v>719</v>
+        <v>1493</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G229" t="s">
         <v>2</v>
       </c>
       <c r="H229" t="s">
-        <v>862</v>
+        <v>861</v>
+      </c>
+      <c r="I229" t="s">
+        <v>650</v>
       </c>
       <c r="J229">
         <v>147</v>
@@ -10167,25 +10179,28 @@
         <v>126</v>
       </c>
       <c r="B230" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C230" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="D230" s="4">
+        <v>719</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F230" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G230" t="s">
         <v>2</v>
       </c>
       <c r="H230" t="s">
-        <v>863</v>
-      </c>
-      <c r="I230" t="s">
-        <v>650</v>
+        <v>862</v>
       </c>
       <c r="J230">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
@@ -10193,10 +10208,10 @@
         <v>126</v>
       </c>
       <c r="B231" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C231" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F231" t="s">
         <v>1</v>
@@ -10205,13 +10220,13 @@
         <v>2</v>
       </c>
       <c r="H231" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I231" t="s">
         <v>650</v>
       </c>
       <c r="J231">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -10219,10 +10234,10 @@
         <v>126</v>
       </c>
       <c r="B232" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C232" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F232" t="s">
         <v>1</v>
@@ -10231,13 +10246,13 @@
         <v>2</v>
       </c>
       <c r="H232" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I232" t="s">
         <v>650</v>
       </c>
       <c r="J232">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
@@ -10245,10 +10260,10 @@
         <v>126</v>
       </c>
       <c r="B233" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C233" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F233" t="s">
         <v>1</v>
@@ -10257,13 +10272,13 @@
         <v>2</v>
       </c>
       <c r="H233" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I233" t="s">
         <v>650</v>
       </c>
       <c r="J233">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
@@ -10271,10 +10286,10 @@
         <v>126</v>
       </c>
       <c r="B234" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C234" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F234" t="s">
         <v>1</v>
@@ -10283,13 +10298,13 @@
         <v>2</v>
       </c>
       <c r="H234" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I234" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J234">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -10297,10 +10312,10 @@
         <v>126</v>
       </c>
       <c r="B235" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C235" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F235" t="s">
         <v>1</v>
@@ -10309,10 +10324,13 @@
         <v>2</v>
       </c>
       <c r="H235" t="s">
-        <v>868</v>
+        <v>867</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1057</v>
       </c>
       <c r="J235">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -10320,16 +10338,10 @@
         <v>126</v>
       </c>
       <c r="B236" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C236" t="s">
-        <v>351</v>
-      </c>
-      <c r="D236" s="4">
-        <v>3278</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="F236" t="s">
         <v>1</v>
@@ -10338,13 +10350,10 @@
         <v>2</v>
       </c>
       <c r="H236" t="s">
-        <v>869</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1057</v>
+        <v>868</v>
       </c>
       <c r="J236">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -10355,22 +10364,25 @@
         <v>350</v>
       </c>
       <c r="C237" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D237" s="4">
-        <v>2137</v>
+        <v>3278</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G237" t="s">
         <v>2</v>
       </c>
       <c r="H237" t="s">
-        <v>870</v>
+        <v>869</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1057</v>
       </c>
       <c r="J237">
         <v>154</v>
@@ -10384,10 +10396,10 @@
         <v>350</v>
       </c>
       <c r="C238" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D238" s="4">
-        <v>583</v>
+        <v>2137</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>3</v>
@@ -10399,7 +10411,7 @@
         <v>2</v>
       </c>
       <c r="H238" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J238">
         <v>154</v>
@@ -10410,25 +10422,28 @@
         <v>126</v>
       </c>
       <c r="B239" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C239" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="D239" s="4">
+        <v>583</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F239" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G239" t="s">
         <v>2</v>
       </c>
       <c r="H239" t="s">
-        <v>872</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1057</v>
+        <v>871</v>
       </c>
       <c r="J239">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
@@ -10436,10 +10451,10 @@
         <v>126</v>
       </c>
       <c r="B240" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C240" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F240" t="s">
         <v>1</v>
@@ -10448,13 +10463,13 @@
         <v>2</v>
       </c>
       <c r="H240" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I240" t="s">
-        <v>650</v>
+        <v>1057</v>
       </c>
       <c r="J240">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
@@ -10462,10 +10477,10 @@
         <v>126</v>
       </c>
       <c r="B241" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C241" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F241" t="s">
         <v>1</v>
@@ -10474,13 +10489,13 @@
         <v>2</v>
       </c>
       <c r="H241" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I241" t="s">
         <v>650</v>
       </c>
       <c r="J241">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -10488,10 +10503,10 @@
         <v>126</v>
       </c>
       <c r="B242" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C242" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F242" t="s">
         <v>1</v>
@@ -10500,13 +10515,13 @@
         <v>2</v>
       </c>
       <c r="H242" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I242" t="s">
-        <v>1095</v>
+        <v>650</v>
       </c>
       <c r="J242">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
@@ -10517,16 +10532,19 @@
         <v>360</v>
       </c>
       <c r="C243" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F243" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H243" t="s">
-        <v>876</v>
+        <v>875</v>
+      </c>
+      <c r="I243" t="s">
+        <v>1095</v>
       </c>
       <c r="J243">
         <v>158</v>
@@ -10537,25 +10555,22 @@
         <v>126</v>
       </c>
       <c r="B244" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C244" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F244" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H244" t="s">
-        <v>877</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1057</v>
+        <v>876</v>
       </c>
       <c r="J244">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
@@ -10563,10 +10578,10 @@
         <v>126</v>
       </c>
       <c r="B245" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C245" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F245" t="s">
         <v>1</v>
@@ -10575,13 +10590,13 @@
         <v>2</v>
       </c>
       <c r="H245" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I245" t="s">
         <v>1057</v>
       </c>
       <c r="J245">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
@@ -10589,10 +10604,10 @@
         <v>126</v>
       </c>
       <c r="B246" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C246" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F246" t="s">
         <v>1</v>
@@ -10601,13 +10616,13 @@
         <v>2</v>
       </c>
       <c r="H246" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I246" t="s">
         <v>1057</v>
       </c>
       <c r="J246">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
@@ -10615,10 +10630,10 @@
         <v>126</v>
       </c>
       <c r="B247" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C247" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F247" t="s">
         <v>1</v>
@@ -10627,13 +10642,13 @@
         <v>2</v>
       </c>
       <c r="H247" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I247" t="s">
         <v>1057</v>
       </c>
       <c r="J247">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
@@ -10641,31 +10656,25 @@
         <v>126</v>
       </c>
       <c r="B248" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C248" t="s">
-        <v>372</v>
-      </c>
-      <c r="D248" s="4">
-        <v>2057</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>3</v>
+        <v>370</v>
       </c>
       <c r="F248" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G248" t="s">
         <v>2</v>
       </c>
       <c r="H248" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I248" t="s">
-        <v>1104</v>
+        <v>1057</v>
       </c>
       <c r="J248">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
@@ -10676,19 +10685,25 @@
         <v>371</v>
       </c>
       <c r="C249" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="D249" s="4">
+        <v>2057</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F249" t="s">
         <v>3</v>
       </c>
       <c r="G249" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H249" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I249" t="s">
-        <v>648</v>
+        <v>1104</v>
       </c>
       <c r="J249">
         <v>163</v>
@@ -10702,22 +10717,19 @@
         <v>371</v>
       </c>
       <c r="C250" t="s">
-        <v>374</v>
-      </c>
-      <c r="D250" s="4">
-        <v>2034</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>3</v>
+        <v>373</v>
       </c>
       <c r="F250" t="s">
         <v>3</v>
       </c>
       <c r="G250" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H250" t="s">
-        <v>883</v>
+        <v>882</v>
+      </c>
+      <c r="I250" t="s">
+        <v>648</v>
       </c>
       <c r="J250">
         <v>163</v>
@@ -10731,13 +10743,13 @@
         <v>371</v>
       </c>
       <c r="C251" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D251" s="4">
-        <v>2307</v>
+        <v>2034</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F251" t="s">
         <v>3</v>
@@ -10746,10 +10758,7 @@
         <v>2</v>
       </c>
       <c r="H251" t="s">
-        <v>884</v>
-      </c>
-      <c r="I251" t="s">
-        <v>1105</v>
+        <v>883</v>
       </c>
       <c r="J251">
         <v>163</v>
@@ -10760,25 +10769,31 @@
         <v>126</v>
       </c>
       <c r="B252" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C252" t="s">
-        <v>377</v>
+        <v>375</v>
+      </c>
+      <c r="D252" s="4">
+        <v>2307</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G252" t="s">
         <v>2</v>
       </c>
       <c r="H252" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I252" t="s">
-        <v>650</v>
+        <v>1105</v>
       </c>
       <c r="J252">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
@@ -10786,25 +10801,25 @@
         <v>126</v>
       </c>
       <c r="B253" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C253" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F253" t="s">
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I253" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J253">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
@@ -10815,19 +10830,19 @@
         <v>378</v>
       </c>
       <c r="C254" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F254" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H254" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I254" t="s">
-        <v>1106</v>
+        <v>1057</v>
       </c>
       <c r="J254">
         <v>165</v>
@@ -10838,22 +10853,25 @@
         <v>126</v>
       </c>
       <c r="B255" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C255" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F255" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G255" t="s">
         <v>2</v>
       </c>
       <c r="H255" t="s">
-        <v>888</v>
+        <v>887</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1106</v>
       </c>
       <c r="J255">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
@@ -10864,19 +10882,16 @@
         <v>381</v>
       </c>
       <c r="C256" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F256" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G256" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
-        <v>889</v>
-      </c>
-      <c r="I256" t="s">
-        <v>1049</v>
+        <v>888</v>
       </c>
       <c r="J256">
         <v>166</v>
@@ -10887,25 +10902,25 @@
         <v>126</v>
       </c>
       <c r="B257" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C257" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F257" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G257" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H257" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I257" t="s">
-        <v>650</v>
+        <v>1049</v>
       </c>
       <c r="J257">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
@@ -10916,19 +10931,19 @@
         <v>384</v>
       </c>
       <c r="C258" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F258" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G258" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I258" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J258">
         <v>167</v>
@@ -10939,25 +10954,25 @@
         <v>126</v>
       </c>
       <c r="B259" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C259" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F259" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G259" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H259" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I259" t="s">
-        <v>1057</v>
+        <v>648</v>
       </c>
       <c r="J259">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
@@ -10965,25 +10980,25 @@
         <v>126</v>
       </c>
       <c r="B260" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C260" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F260" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G260" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I260" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="J260">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
@@ -10994,22 +11009,19 @@
         <v>389</v>
       </c>
       <c r="C261" t="s">
-        <v>391</v>
-      </c>
-      <c r="D261" s="4">
-        <v>2048</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>3</v>
+        <v>390</v>
       </c>
       <c r="F261" t="s">
         <v>3</v>
       </c>
       <c r="G261" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H261" t="s">
-        <v>894</v>
+        <v>893</v>
+      </c>
+      <c r="I261" t="s">
+        <v>1062</v>
       </c>
       <c r="J261">
         <v>169</v>
@@ -11023,10 +11035,10 @@
         <v>389</v>
       </c>
       <c r="C262" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D262" s="4">
-        <v>577</v>
+        <v>2048</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>3</v>
@@ -11038,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="H262" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J262">
         <v>169</v>
@@ -11052,13 +11064,13 @@
         <v>389</v>
       </c>
       <c r="C263" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D263" s="4">
-        <v>2742</v>
+        <v>577</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F263" t="s">
         <v>3</v>
@@ -11067,10 +11079,7 @@
         <v>2</v>
       </c>
       <c r="H263" t="s">
-        <v>896</v>
-      </c>
-      <c r="I263" t="s">
-        <v>1049</v>
+        <v>895</v>
       </c>
       <c r="J263">
         <v>169</v>
@@ -11081,25 +11090,31 @@
         <v>126</v>
       </c>
       <c r="B264" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C264" t="s">
-        <v>395</v>
+        <v>393</v>
+      </c>
+      <c r="D264" s="4">
+        <v>2742</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G264" t="s">
         <v>2</v>
       </c>
       <c r="H264" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I264" t="s">
-        <v>1107</v>
+        <v>1049</v>
       </c>
       <c r="J264">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
@@ -11107,10 +11122,10 @@
         <v>126</v>
       </c>
       <c r="B265" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C265" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F265" t="s">
         <v>1</v>
@@ -11119,13 +11134,13 @@
         <v>2</v>
       </c>
       <c r="H265" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I265" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J265">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
@@ -11133,28 +11148,25 @@
         <v>126</v>
       </c>
       <c r="B266" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C266" t="s">
-        <v>399</v>
-      </c>
-      <c r="D266" s="4">
-        <v>2621</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="F266" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G266" t="s">
         <v>2</v>
       </c>
       <c r="H266" t="s">
-        <v>899</v>
+        <v>898</v>
+      </c>
+      <c r="I266" t="s">
+        <v>1108</v>
       </c>
       <c r="J266">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
@@ -11165,10 +11177,10 @@
         <v>398</v>
       </c>
       <c r="C267" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D267" s="4">
-        <v>2241</v>
+        <v>2621</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>1</v>
@@ -11177,13 +11189,10 @@
         <v>3</v>
       </c>
       <c r="G267" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
-        <v>900</v>
-      </c>
-      <c r="I267" t="s">
-        <v>1049</v>
+        <v>899</v>
       </c>
       <c r="J267">
         <v>172</v>
@@ -11197,25 +11206,25 @@
         <v>398</v>
       </c>
       <c r="C268" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D268" s="4">
-        <v>2111</v>
+        <v>2241</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F268" t="s">
         <v>3</v>
       </c>
       <c r="G268" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H268" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I268" t="s">
-        <v>1109</v>
+        <v>1049</v>
       </c>
       <c r="J268">
         <v>172</v>
@@ -11229,10 +11238,10 @@
         <v>398</v>
       </c>
       <c r="C269" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D269" s="4">
-        <v>545</v>
+        <v>2111</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>3</v>
@@ -11244,7 +11253,10 @@
         <v>2</v>
       </c>
       <c r="H269" t="s">
-        <v>902</v>
+        <v>901</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1109</v>
       </c>
       <c r="J269">
         <v>172</v>
@@ -11258,10 +11270,10 @@
         <v>398</v>
       </c>
       <c r="C270" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D270" s="4">
-        <v>951</v>
+        <v>545</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>3</v>
@@ -11273,10 +11285,7 @@
         <v>2</v>
       </c>
       <c r="H270" t="s">
-        <v>903</v>
-      </c>
-      <c r="I270" t="s">
-        <v>1110</v>
+        <v>902</v>
       </c>
       <c r="J270">
         <v>172</v>
@@ -11290,10 +11299,10 @@
         <v>398</v>
       </c>
       <c r="C271" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D271" s="4">
-        <v>2027</v>
+        <v>951</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>3</v>
@@ -11302,13 +11311,13 @@
         <v>3</v>
       </c>
       <c r="G271" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I271" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J271">
         <v>172</v>
@@ -11319,31 +11328,31 @@
         <v>126</v>
       </c>
       <c r="B272" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C272" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D272" s="4">
-        <v>1258</v>
+        <v>2027</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F272" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G272" t="s">
         <v>4</v>
       </c>
       <c r="H272" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I272" t="s">
-        <v>1057</v>
+        <v>1111</v>
       </c>
       <c r="J272">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
@@ -11354,22 +11363,25 @@
         <v>405</v>
       </c>
       <c r="C273" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D273" s="4">
-        <v>1811</v>
+        <v>1258</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F273" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G273" t="s">
         <v>4</v>
       </c>
       <c r="H273" t="s">
-        <v>906</v>
+        <v>905</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1057</v>
       </c>
       <c r="J273">
         <v>173</v>
@@ -11380,25 +11392,28 @@
         <v>126</v>
       </c>
       <c r="B274" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C274" t="s">
-        <v>409</v>
+        <v>407</v>
+      </c>
+      <c r="D274" s="4">
+        <v>1811</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G274" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H274" t="s">
-        <v>907</v>
-      </c>
-      <c r="I274" t="s">
-        <v>650</v>
+        <v>906</v>
       </c>
       <c r="J274">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
@@ -11406,10 +11421,10 @@
         <v>126</v>
       </c>
       <c r="B275" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C275" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F275" t="s">
         <v>1</v>
@@ -11418,13 +11433,13 @@
         <v>2</v>
       </c>
       <c r="H275" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I275" t="s">
-        <v>1073</v>
+        <v>650</v>
       </c>
       <c r="J275">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -11432,25 +11447,25 @@
         <v>126</v>
       </c>
       <c r="B276" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C276" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F276" t="s">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I276" t="s">
-        <v>1112</v>
+        <v>1073</v>
       </c>
       <c r="J276">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -11458,22 +11473,25 @@
         <v>126</v>
       </c>
       <c r="B277" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C277" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F277" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H277" t="s">
-        <v>910</v>
+        <v>909</v>
+      </c>
+      <c r="I277" t="s">
+        <v>1112</v>
       </c>
       <c r="J277">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -11484,22 +11502,16 @@
         <v>414</v>
       </c>
       <c r="C278" t="s">
-        <v>416</v>
-      </c>
-      <c r="D278" s="4">
-        <v>1681</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>3</v>
+        <v>415</v>
       </c>
       <c r="F278" t="s">
         <v>3</v>
       </c>
       <c r="G278" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H278" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J278">
         <v>177</v>
@@ -11513,13 +11525,13 @@
         <v>414</v>
       </c>
       <c r="C279" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D279" s="4">
-        <v>1846</v>
+        <v>1681</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F279" t="s">
         <v>3</v>
@@ -11528,7 +11540,7 @@
         <v>4</v>
       </c>
       <c r="H279" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J279">
         <v>177</v>
@@ -11539,22 +11551,28 @@
         <v>126</v>
       </c>
       <c r="B280" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C280" t="s">
-        <v>419</v>
+        <v>417</v>
+      </c>
+      <c r="D280" s="4">
+        <v>1846</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F280" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G280" t="s">
         <v>4</v>
       </c>
       <c r="H280" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J280">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
@@ -11562,25 +11580,22 @@
         <v>126</v>
       </c>
       <c r="B281" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C281" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F281" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H281" t="s">
-        <v>914</v>
-      </c>
-      <c r="I281" t="s">
-        <v>1113</v>
+        <v>913</v>
       </c>
       <c r="J281">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -11591,19 +11606,19 @@
         <v>420</v>
       </c>
       <c r="C282" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F282" t="s">
         <v>3</v>
       </c>
       <c r="G282" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I282" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J282">
         <v>179</v>
@@ -11614,25 +11629,25 @@
         <v>126</v>
       </c>
       <c r="B283" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C283" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F283" t="s">
         <v>3</v>
       </c>
       <c r="G283" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H283" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I283" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J283">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
@@ -11643,19 +11658,19 @@
         <v>423</v>
       </c>
       <c r="C284" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F284" t="s">
         <v>3</v>
       </c>
       <c r="G284" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H284" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I284" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J284">
         <v>180</v>
@@ -11669,16 +11684,19 @@
         <v>423</v>
       </c>
       <c r="C285" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F285" t="s">
         <v>3</v>
       </c>
       <c r="G285" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H285" t="s">
-        <v>918</v>
+        <v>917</v>
+      </c>
+      <c r="I285" t="s">
+        <v>1116</v>
       </c>
       <c r="J285">
         <v>180</v>
@@ -11689,25 +11707,22 @@
         <v>126</v>
       </c>
       <c r="B286" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C286" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F286" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G286" t="s">
         <v>2</v>
       </c>
       <c r="H286" t="s">
-        <v>919</v>
-      </c>
-      <c r="I286" t="s">
-        <v>1095</v>
+        <v>918</v>
       </c>
       <c r="J286">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
@@ -11715,16 +11730,10 @@
         <v>126</v>
       </c>
       <c r="B287" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C287" t="s">
-        <v>430</v>
-      </c>
-      <c r="D287" s="4">
-        <v>1709</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>1</v>
+        <v>428</v>
       </c>
       <c r="F287" t="s">
         <v>1</v>
@@ -11733,13 +11742,13 @@
         <v>2</v>
       </c>
       <c r="H287" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I287" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="J287">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -11750,22 +11759,25 @@
         <v>429</v>
       </c>
       <c r="C288" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D288" s="4">
-        <v>460</v>
+        <v>1709</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F288" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G288" t="s">
         <v>2</v>
       </c>
       <c r="H288" t="s">
-        <v>921</v>
+        <v>920</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1117</v>
       </c>
       <c r="J288">
         <v>182</v>
@@ -11776,22 +11788,28 @@
         <v>126</v>
       </c>
       <c r="B289" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C289" t="s">
-        <v>433</v>
+        <v>431</v>
+      </c>
+      <c r="D289" s="4">
+        <v>460</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F289" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G289" t="s">
         <v>2</v>
       </c>
       <c r="H289" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J289">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
@@ -11802,16 +11820,16 @@
         <v>432</v>
       </c>
       <c r="C290" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F290" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J290">
         <v>183</v>
@@ -11822,25 +11840,22 @@
         <v>126</v>
       </c>
       <c r="B291" t="s">
-        <v>104</v>
+        <v>432</v>
       </c>
       <c r="C291" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F291" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G291" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H291" t="s">
-        <v>924</v>
-      </c>
-      <c r="I291" t="s">
-        <v>650</v>
+        <v>923</v>
       </c>
       <c r="J291">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -11848,10 +11863,10 @@
         <v>126</v>
       </c>
       <c r="B292" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C292" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F292" t="s">
         <v>1</v>
@@ -11860,10 +11875,13 @@
         <v>2</v>
       </c>
       <c r="H292" t="s">
-        <v>925</v>
+        <v>924</v>
+      </c>
+      <c r="I292" t="s">
+        <v>650</v>
       </c>
       <c r="J292">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -11871,10 +11889,10 @@
         <v>126</v>
       </c>
       <c r="B293" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C293" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F293" t="s">
         <v>1</v>
@@ -11883,10 +11901,10 @@
         <v>2</v>
       </c>
       <c r="H293" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J293">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -11894,10 +11912,10 @@
         <v>126</v>
       </c>
       <c r="B294" t="s">
-        <v>438</v>
+        <v>109</v>
       </c>
       <c r="C294" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F294" t="s">
         <v>1</v>
@@ -11906,13 +11924,10 @@
         <v>2</v>
       </c>
       <c r="H294" t="s">
-        <v>927</v>
-      </c>
-      <c r="I294" t="s">
-        <v>650</v>
+        <v>926</v>
       </c>
       <c r="J294">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
@@ -11920,10 +11935,10 @@
         <v>126</v>
       </c>
       <c r="B295" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C295" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F295" t="s">
         <v>1</v>
@@ -11932,13 +11947,13 @@
         <v>2</v>
       </c>
       <c r="H295" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I295" t="s">
         <v>650</v>
       </c>
       <c r="J295">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -11946,16 +11961,10 @@
         <v>126</v>
       </c>
       <c r="B296" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C296" t="s">
-        <v>443</v>
-      </c>
-      <c r="D296" s="4">
-        <v>2254</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="F296" t="s">
         <v>1</v>
@@ -11964,13 +11973,13 @@
         <v>2</v>
       </c>
       <c r="H296" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I296" t="s">
         <v>650</v>
       </c>
       <c r="J296">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -11981,22 +11990,25 @@
         <v>442</v>
       </c>
       <c r="C297" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D297" s="4">
+        <v>2254</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1</v>
+      </c>
+      <c r="G297" t="s">
+        <v>2</v>
+      </c>
+      <c r="H297" t="s">
+        <v>929</v>
+      </c>
+      <c r="I297" t="s">
         <v>650</v>
-      </c>
-      <c r="E297" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F297" t="s">
-        <v>3</v>
-      </c>
-      <c r="G297" t="s">
-        <v>2</v>
-      </c>
-      <c r="H297" t="s">
-        <v>930</v>
       </c>
       <c r="J297">
         <v>189</v>
@@ -12010,10 +12022,10 @@
         <v>442</v>
       </c>
       <c r="C298" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D298" s="4">
-        <v>193</v>
+        <v>650</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>3</v>
@@ -12025,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="H298" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J298">
         <v>189</v>
@@ -12036,25 +12048,28 @@
         <v>126</v>
       </c>
       <c r="B299" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C299" t="s">
-        <v>447</v>
+        <v>445</v>
+      </c>
+      <c r="D299" s="4">
+        <v>193</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F299" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G299" t="s">
         <v>2</v>
       </c>
       <c r="H299" t="s">
-        <v>932</v>
-      </c>
-      <c r="I299" t="s">
-        <v>650</v>
+        <v>931</v>
       </c>
       <c r="J299">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -12062,16 +12077,10 @@
         <v>126</v>
       </c>
       <c r="B300" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C300" t="s">
-        <v>449</v>
-      </c>
-      <c r="D300" s="4">
-        <v>2532</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="F300" t="s">
         <v>1</v>
@@ -12080,13 +12089,13 @@
         <v>2</v>
       </c>
       <c r="H300" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I300" t="s">
         <v>650</v>
       </c>
       <c r="J300">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
@@ -12097,22 +12106,25 @@
         <v>448</v>
       </c>
       <c r="C301" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D301" s="4">
-        <v>465</v>
+        <v>2532</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F301" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G301" t="s">
         <v>2</v>
       </c>
       <c r="H301" t="s">
-        <v>934</v>
+        <v>933</v>
+      </c>
+      <c r="I301" t="s">
+        <v>650</v>
       </c>
       <c r="J301">
         <v>191</v>
@@ -12126,10 +12138,10 @@
         <v>448</v>
       </c>
       <c r="C302" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D302" s="4">
-        <v>66</v>
+        <v>465</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>3</v>
@@ -12141,7 +12153,7 @@
         <v>2</v>
       </c>
       <c r="H302" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J302">
         <v>191</v>
@@ -12152,25 +12164,28 @@
         <v>126</v>
       </c>
       <c r="B303" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C303" t="s">
-        <v>453</v>
+        <v>451</v>
+      </c>
+      <c r="D303" s="4">
+        <v>66</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F303" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G303" t="s">
         <v>2</v>
       </c>
       <c r="H303" t="s">
-        <v>936</v>
-      </c>
-      <c r="I303" t="s">
-        <v>650</v>
+        <v>935</v>
       </c>
       <c r="J303">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
@@ -12181,16 +12196,19 @@
         <v>452</v>
       </c>
       <c r="C304" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F304" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G304" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
-        <v>937</v>
+        <v>936</v>
+      </c>
+      <c r="I304" t="s">
+        <v>650</v>
       </c>
       <c r="J304">
         <v>192</v>
@@ -12201,25 +12219,22 @@
         <v>126</v>
       </c>
       <c r="B305" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C305" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F305" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G305" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H305" t="s">
-        <v>938</v>
-      </c>
-      <c r="I305" t="s">
-        <v>650</v>
+        <v>937</v>
       </c>
       <c r="J305">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
@@ -12227,10 +12242,10 @@
         <v>126</v>
       </c>
       <c r="B306" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C306" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F306" t="s">
         <v>1</v>
@@ -12239,13 +12254,13 @@
         <v>2</v>
       </c>
       <c r="H306" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I306" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J306">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
@@ -12253,10 +12268,10 @@
         <v>126</v>
       </c>
       <c r="B307" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C307" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F307" t="s">
         <v>1</v>
@@ -12265,13 +12280,13 @@
         <v>2</v>
       </c>
       <c r="H307" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I307" t="s">
-        <v>650</v>
+        <v>1057</v>
       </c>
       <c r="J307">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -12279,10 +12294,10 @@
         <v>126</v>
       </c>
       <c r="B308" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C308" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F308" t="s">
         <v>1</v>
@@ -12291,10 +12306,13 @@
         <v>2</v>
       </c>
       <c r="H308" t="s">
-        <v>941</v>
+        <v>940</v>
+      </c>
+      <c r="I308" t="s">
+        <v>650</v>
       </c>
       <c r="J308">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
@@ -12302,10 +12320,10 @@
         <v>126</v>
       </c>
       <c r="B309" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C309" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F309" t="s">
         <v>1</v>
@@ -12314,13 +12332,10 @@
         <v>2</v>
       </c>
       <c r="H309" t="s">
-        <v>942</v>
-      </c>
-      <c r="I309" t="s">
-        <v>650</v>
+        <v>941</v>
       </c>
       <c r="J309">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
@@ -12328,10 +12343,10 @@
         <v>126</v>
       </c>
       <c r="B310" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C310" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F310" t="s">
         <v>1</v>
@@ -12340,13 +12355,13 @@
         <v>2</v>
       </c>
       <c r="H310" t="s">
-        <v>651</v>
+        <v>942</v>
       </c>
       <c r="I310" t="s">
         <v>650</v>
       </c>
       <c r="J310">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
@@ -12354,10 +12369,10 @@
         <v>126</v>
       </c>
       <c r="B311" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C311" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F311" t="s">
         <v>1</v>
@@ -12366,13 +12381,13 @@
         <v>2</v>
       </c>
       <c r="H311" t="s">
-        <v>943</v>
+        <v>651</v>
       </c>
       <c r="I311" t="s">
         <v>650</v>
       </c>
       <c r="J311">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -12380,10 +12395,10 @@
         <v>126</v>
       </c>
       <c r="B312" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C312" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F312" t="s">
         <v>1</v>
@@ -12392,13 +12407,13 @@
         <v>2</v>
       </c>
       <c r="H312" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I312" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J312">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -12406,10 +12421,10 @@
         <v>126</v>
       </c>
       <c r="B313" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C313" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F313" t="s">
         <v>1</v>
@@ -12418,13 +12433,13 @@
         <v>2</v>
       </c>
       <c r="H313" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I313" t="s">
-        <v>650</v>
+        <v>1057</v>
       </c>
       <c r="J313">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -12432,10 +12447,10 @@
         <v>126</v>
       </c>
       <c r="B314" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C314" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F314" t="s">
         <v>1</v>
@@ -12444,13 +12459,13 @@
         <v>2</v>
       </c>
       <c r="H314" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I314" t="s">
         <v>650</v>
       </c>
       <c r="J314">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -12458,25 +12473,25 @@
         <v>126</v>
       </c>
       <c r="B315" t="s">
-        <v>114</v>
+        <v>473</v>
       </c>
       <c r="C315" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F315" t="s">
         <v>1</v>
       </c>
       <c r="G315" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I315" t="s">
-        <v>1118</v>
+        <v>650</v>
       </c>
       <c r="J315">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -12487,19 +12502,19 @@
         <v>114</v>
       </c>
       <c r="C316" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F316" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G316" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H316" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I316" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J316">
         <v>203</v>
@@ -12510,25 +12525,25 @@
         <v>126</v>
       </c>
       <c r="B317" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C317" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F317" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G317" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H317" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I317" t="s">
-        <v>650</v>
+        <v>1119</v>
       </c>
       <c r="J317">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -12539,19 +12554,19 @@
         <v>116</v>
       </c>
       <c r="C318" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F318" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G318" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I318" t="s">
-        <v>1049</v>
+        <v>650</v>
       </c>
       <c r="J318">
         <v>204</v>
@@ -12562,25 +12577,25 @@
         <v>126</v>
       </c>
       <c r="B319" t="s">
-        <v>479</v>
+        <v>116</v>
       </c>
       <c r="C319" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F319" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G319" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H319" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I319" t="s">
-        <v>650</v>
+        <v>1049</v>
       </c>
       <c r="J319">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -12588,10 +12603,10 @@
         <v>126</v>
       </c>
       <c r="B320" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C320" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F320" t="s">
         <v>1</v>
@@ -12600,13 +12615,13 @@
         <v>2</v>
       </c>
       <c r="H320" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I320" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J320">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -12617,19 +12632,19 @@
         <v>481</v>
       </c>
       <c r="C321" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F321" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I321" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="J321">
         <v>206</v>
@@ -12640,22 +12655,25 @@
         <v>126</v>
       </c>
       <c r="B322" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C322" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F322" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G322" t="s">
         <v>4</v>
       </c>
       <c r="H322" t="s">
-        <v>954</v>
+        <v>953</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1074</v>
       </c>
       <c r="J322">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -12663,10 +12681,10 @@
         <v>126</v>
       </c>
       <c r="B323" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C323" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F323" t="s">
         <v>1</v>
@@ -12675,13 +12693,10 @@
         <v>4</v>
       </c>
       <c r="H323" t="s">
-        <v>955</v>
-      </c>
-      <c r="I323" t="s">
-        <v>1120</v>
+        <v>954</v>
       </c>
       <c r="J323">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -12692,16 +12707,19 @@
         <v>486</v>
       </c>
       <c r="C324" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F324" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G324" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H324" t="s">
-        <v>956</v>
+        <v>955</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1120</v>
       </c>
       <c r="J324">
         <v>208</v>
@@ -12712,31 +12730,22 @@
         <v>126</v>
       </c>
       <c r="B325" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C325" t="s">
-        <v>490</v>
-      </c>
-      <c r="D325" s="4">
-        <v>2107</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>1</v>
+        <v>488</v>
       </c>
       <c r="F325" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G325" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
-        <v>957</v>
-      </c>
-      <c r="I325" t="s">
-        <v>1057</v>
+        <v>956</v>
       </c>
       <c r="J325">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -12747,19 +12756,25 @@
         <v>489</v>
       </c>
       <c r="C326" t="s">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="D326" s="4">
+        <v>2107</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F326" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H326" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I326" t="s">
-        <v>648</v>
+        <v>1057</v>
       </c>
       <c r="J326">
         <v>209</v>
@@ -12773,22 +12788,19 @@
         <v>489</v>
       </c>
       <c r="C327" t="s">
-        <v>492</v>
-      </c>
-      <c r="D327" s="4">
-        <v>476</v>
-      </c>
-      <c r="E327" s="4" t="s">
-        <v>3</v>
+        <v>491</v>
       </c>
       <c r="F327" t="s">
         <v>3</v>
       </c>
       <c r="G327" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H327" t="s">
-        <v>959</v>
+        <v>958</v>
+      </c>
+      <c r="I327" t="s">
+        <v>648</v>
       </c>
       <c r="J327">
         <v>209</v>
@@ -12799,25 +12811,28 @@
         <v>126</v>
       </c>
       <c r="B328" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C328" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="D328" s="4">
+        <v>476</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F328" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G328" t="s">
         <v>4</v>
       </c>
       <c r="H328" t="s">
-        <v>960</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1121</v>
+        <v>959</v>
       </c>
       <c r="J328">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -12825,10 +12840,10 @@
         <v>126</v>
       </c>
       <c r="B329" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C329" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F329" t="s">
         <v>1</v>
@@ -12837,13 +12852,13 @@
         <v>4</v>
       </c>
       <c r="H329" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I329" t="s">
-        <v>1057</v>
+        <v>1121</v>
       </c>
       <c r="J329">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -12851,22 +12866,25 @@
         <v>126</v>
       </c>
       <c r="B330" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C330" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F330" t="s">
         <v>1</v>
       </c>
       <c r="G330" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H330" t="s">
-        <v>962</v>
+        <v>961</v>
+      </c>
+      <c r="I330" t="s">
+        <v>1057</v>
       </c>
       <c r="J330">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -12874,25 +12892,22 @@
         <v>126</v>
       </c>
       <c r="B331" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C331" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F331" t="s">
         <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
-        <v>963</v>
-      </c>
-      <c r="I331" t="s">
-        <v>650</v>
+        <v>962</v>
       </c>
       <c r="J331">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -12900,25 +12915,25 @@
         <v>126</v>
       </c>
       <c r="B332" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C332" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F332" t="s">
         <v>1</v>
       </c>
       <c r="G332" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H332" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I332" t="s">
         <v>650</v>
       </c>
       <c r="J332">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -12926,10 +12941,10 @@
         <v>126</v>
       </c>
       <c r="B333" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C333" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F333" t="s">
         <v>1</v>
@@ -12938,10 +12953,13 @@
         <v>2</v>
       </c>
       <c r="H333" t="s">
-        <v>965</v>
+        <v>964</v>
+      </c>
+      <c r="I333" t="s">
+        <v>650</v>
       </c>
       <c r="J333">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -12949,10 +12967,10 @@
         <v>126</v>
       </c>
       <c r="B334" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C334" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F334" t="s">
         <v>1</v>
@@ -12961,13 +12979,10 @@
         <v>2</v>
       </c>
       <c r="H334" t="s">
-        <v>966</v>
-      </c>
-      <c r="I334" t="s">
-        <v>1057</v>
+        <v>965</v>
       </c>
       <c r="J334">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -12975,10 +12990,10 @@
         <v>126</v>
       </c>
       <c r="B335" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C335" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F335" t="s">
         <v>1</v>
@@ -12987,13 +13002,13 @@
         <v>2</v>
       </c>
       <c r="H335" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I335" t="s">
         <v>1057</v>
       </c>
       <c r="J335">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -13001,10 +13016,10 @@
         <v>126</v>
       </c>
       <c r="B336" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C336" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F336" t="s">
         <v>1</v>
@@ -13013,10 +13028,13 @@
         <v>2</v>
       </c>
       <c r="H336" t="s">
-        <v>968</v>
+        <v>967</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1057</v>
       </c>
       <c r="J336">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -13024,10 +13042,10 @@
         <v>126</v>
       </c>
       <c r="B337" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C337" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F337" t="s">
         <v>1</v>
@@ -13036,13 +13054,10 @@
         <v>2</v>
       </c>
       <c r="H337" t="s">
-        <v>969</v>
-      </c>
-      <c r="I337" t="s">
-        <v>1057</v>
+        <v>968</v>
       </c>
       <c r="J337">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
@@ -13050,25 +13065,25 @@
         <v>126</v>
       </c>
       <c r="B338" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C338" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F338" t="s">
         <v>1</v>
       </c>
       <c r="G338" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I338" t="s">
-        <v>650</v>
+        <v>1057</v>
       </c>
       <c r="J338">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
@@ -13076,25 +13091,25 @@
         <v>126</v>
       </c>
       <c r="B339" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C339" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F339" t="s">
         <v>1</v>
       </c>
       <c r="G339" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H339" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I339" t="s">
-        <v>1057</v>
+        <v>650</v>
       </c>
       <c r="J339">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
@@ -13105,19 +13120,19 @@
         <v>515</v>
       </c>
       <c r="C340" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F340" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G340" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H340" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I340" t="s">
-        <v>1122</v>
+        <v>1057</v>
       </c>
       <c r="J340">
         <v>221</v>
@@ -13125,25 +13140,28 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>518</v>
+        <v>126</v>
       </c>
       <c r="B341" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C341" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F341" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G341" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H341" t="s">
-        <v>973</v>
+        <v>972</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1122</v>
       </c>
       <c r="J341">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -13154,19 +13172,16 @@
         <v>519</v>
       </c>
       <c r="C342" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F342" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G342" t="s">
         <v>2</v>
       </c>
       <c r="H342" t="s">
-        <v>974</v>
-      </c>
-      <c r="I342" t="s">
-        <v>1123</v>
+        <v>973</v>
       </c>
       <c r="J342">
         <v>222</v>
@@ -13180,19 +13195,19 @@
         <v>519</v>
       </c>
       <c r="C343" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F343" t="s">
         <v>3</v>
       </c>
       <c r="G343" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I343" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J343">
         <v>222</v>
@@ -13206,7 +13221,7 @@
         <v>519</v>
       </c>
       <c r="C344" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F344" t="s">
         <v>3</v>
@@ -13215,7 +13230,10 @@
         <v>4</v>
       </c>
       <c r="H344" t="s">
-        <v>976</v>
+        <v>975</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1124</v>
       </c>
       <c r="J344">
         <v>222</v>
@@ -13226,22 +13244,22 @@
         <v>518</v>
       </c>
       <c r="B345" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C345" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F345" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G345" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H345" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J345">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -13252,19 +13270,16 @@
         <v>524</v>
       </c>
       <c r="C346" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F346" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G346" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
-        <v>978</v>
-      </c>
-      <c r="I346" t="s">
-        <v>1062</v>
+        <v>977</v>
       </c>
       <c r="J346">
         <v>223</v>
@@ -13278,16 +13293,19 @@
         <v>524</v>
       </c>
       <c r="C347" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F347" t="s">
         <v>3</v>
       </c>
       <c r="G347" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H347" t="s">
-        <v>979</v>
+        <v>978</v>
+      </c>
+      <c r="I347" t="s">
+        <v>1062</v>
       </c>
       <c r="J347">
         <v>223</v>
@@ -13298,22 +13316,22 @@
         <v>518</v>
       </c>
       <c r="B348" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C348" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F348" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G348" t="s">
         <v>2</v>
       </c>
       <c r="H348" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J348">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
@@ -13324,7 +13342,7 @@
         <v>528</v>
       </c>
       <c r="C349" t="s">
-        <v>599</v>
+        <v>529</v>
       </c>
       <c r="F349" t="s">
         <v>1</v>
@@ -13333,7 +13351,7 @@
         <v>2</v>
       </c>
       <c r="H349" t="s">
-        <v>598</v>
+        <v>980</v>
       </c>
       <c r="J349">
         <v>224</v>
@@ -13347,19 +13365,16 @@
         <v>528</v>
       </c>
       <c r="C350" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="F350" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G350" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H350" t="s">
-        <v>981</v>
-      </c>
-      <c r="I350" t="s">
-        <v>1062</v>
+        <v>598</v>
       </c>
       <c r="J350">
         <v>224</v>
@@ -13373,16 +13388,19 @@
         <v>528</v>
       </c>
       <c r="C351" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F351" t="s">
         <v>3</v>
       </c>
       <c r="G351" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H351" t="s">
-        <v>982</v>
+        <v>981</v>
+      </c>
+      <c r="I351" t="s">
+        <v>1062</v>
       </c>
       <c r="J351">
         <v>224</v>
@@ -13396,7 +13414,7 @@
         <v>528</v>
       </c>
       <c r="C352" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F352" t="s">
         <v>3</v>
@@ -13405,7 +13423,7 @@
         <v>2</v>
       </c>
       <c r="H352" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J352">
         <v>224</v>
@@ -13416,22 +13434,22 @@
         <v>518</v>
       </c>
       <c r="B353" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C353" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F353" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G353" t="s">
         <v>2</v>
       </c>
       <c r="H353" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J353">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
@@ -13442,19 +13460,16 @@
         <v>533</v>
       </c>
       <c r="C354" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F354" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G354" t="s">
         <v>2</v>
       </c>
       <c r="H354" t="s">
-        <v>985</v>
-      </c>
-      <c r="I354" t="s">
-        <v>1125</v>
+        <v>984</v>
       </c>
       <c r="J354">
         <v>225</v>
@@ -13465,25 +13480,25 @@
         <v>518</v>
       </c>
       <c r="B355" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C355" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F355" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G355" t="s">
         <v>2</v>
       </c>
       <c r="H355" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I355" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J355">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
@@ -13494,19 +13509,19 @@
         <v>536</v>
       </c>
       <c r="C356" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F356" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G356" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I356" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="J356">
         <v>226</v>
@@ -13520,19 +13535,19 @@
         <v>536</v>
       </c>
       <c r="C357" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F357" t="s">
         <v>3</v>
       </c>
       <c r="G357" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H357" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I357" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="J357">
         <v>226</v>
@@ -13546,19 +13561,19 @@
         <v>536</v>
       </c>
       <c r="C358" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F358" t="s">
         <v>3</v>
       </c>
       <c r="G358" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H358" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I358" t="s">
-        <v>1049</v>
+        <v>1127</v>
       </c>
       <c r="J358">
         <v>226</v>
@@ -13572,16 +13587,19 @@
         <v>536</v>
       </c>
       <c r="C359" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F359" t="s">
         <v>3</v>
       </c>
       <c r="G359" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H359" t="s">
-        <v>990</v>
+        <v>989</v>
+      </c>
+      <c r="I359" t="s">
+        <v>1049</v>
       </c>
       <c r="J359">
         <v>226</v>
@@ -13589,13 +13607,13 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="B360" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="C360" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F360" t="s">
         <v>3</v>
@@ -13604,10 +13622,10 @@
         <v>2</v>
       </c>
       <c r="H360" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J360">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
@@ -13615,10 +13633,10 @@
         <v>608</v>
       </c>
       <c r="B361" t="s">
-        <v>1146</v>
+        <v>519</v>
       </c>
       <c r="C361" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F361" t="s">
         <v>3</v>
@@ -13627,10 +13645,10 @@
         <v>2</v>
       </c>
       <c r="H361" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J361">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
@@ -13638,22 +13656,22 @@
         <v>608</v>
       </c>
       <c r="B362" t="s">
-        <v>524</v>
+        <v>1146</v>
       </c>
       <c r="C362" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F362" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G362" t="s">
         <v>2</v>
       </c>
       <c r="H362" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J362">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
@@ -13661,10 +13679,10 @@
         <v>608</v>
       </c>
       <c r="B363" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C363" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F363" t="s">
         <v>1</v>
@@ -13673,13 +13691,10 @@
         <v>2</v>
       </c>
       <c r="H363" t="s">
-        <v>994</v>
-      </c>
-      <c r="I363" t="s">
-        <v>1057</v>
+        <v>993</v>
       </c>
       <c r="J363">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
@@ -13687,10 +13702,10 @@
         <v>608</v>
       </c>
       <c r="B364" t="s">
-        <v>610</v>
+        <v>528</v>
       </c>
       <c r="C364" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F364" t="s">
         <v>1</v>
@@ -13699,13 +13714,13 @@
         <v>2</v>
       </c>
       <c r="H364" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I364" t="s">
-        <v>1128</v>
+        <v>1057</v>
       </c>
       <c r="J364">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
@@ -13716,19 +13731,19 @@
         <v>610</v>
       </c>
       <c r="C365" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F365" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G365" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I365" t="s">
-        <v>1062</v>
+        <v>1128</v>
       </c>
       <c r="J365">
         <v>232</v>
@@ -13742,19 +13757,19 @@
         <v>610</v>
       </c>
       <c r="C366" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F366" t="s">
         <v>3</v>
       </c>
       <c r="G366" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H366" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I366" t="s">
-        <v>1129</v>
+        <v>1062</v>
       </c>
       <c r="J366">
         <v>232</v>
@@ -13768,19 +13783,19 @@
         <v>610</v>
       </c>
       <c r="C367" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F367" t="s">
         <v>3</v>
       </c>
       <c r="G367" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H367" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I367" t="s">
-        <v>648</v>
+        <v>1129</v>
       </c>
       <c r="J367">
         <v>232</v>
@@ -13791,22 +13806,25 @@
         <v>608</v>
       </c>
       <c r="B368" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C368" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F368" t="s">
         <v>3</v>
       </c>
       <c r="G368" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H368" t="s">
-        <v>999</v>
+        <v>998</v>
+      </c>
+      <c r="I368" t="s">
+        <v>648</v>
       </c>
       <c r="J368">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
@@ -13814,22 +13832,22 @@
         <v>608</v>
       </c>
       <c r="B369" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C369" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F369" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G369" t="s">
         <v>2</v>
       </c>
       <c r="H369" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J369">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
@@ -13837,25 +13855,22 @@
         <v>608</v>
       </c>
       <c r="B370" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C370" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F370" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G370" t="s">
         <v>2</v>
       </c>
       <c r="H370" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I370" t="s">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="J370">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
@@ -13863,22 +13878,25 @@
         <v>608</v>
       </c>
       <c r="B371" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C371" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F371" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G371" t="s">
         <v>2</v>
       </c>
       <c r="H371" t="s">
-        <v>1002</v>
+        <v>1001</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1130</v>
       </c>
       <c r="J371">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
@@ -13886,25 +13904,22 @@
         <v>608</v>
       </c>
       <c r="B372" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C372" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F372" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G372" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I372" t="s">
-        <v>648</v>
+        <v>1002</v>
       </c>
       <c r="J372">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
@@ -13915,16 +13930,19 @@
         <v>615</v>
       </c>
       <c r="C373" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F373" t="s">
         <v>3</v>
       </c>
       <c r="G373" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H373" t="s">
-        <v>1004</v>
+        <v>1003</v>
+      </c>
+      <c r="I373" t="s">
+        <v>648</v>
       </c>
       <c r="J373">
         <v>237</v>
@@ -13935,10 +13953,10 @@
         <v>608</v>
       </c>
       <c r="B374" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="C374" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F374" t="s">
         <v>3</v>
@@ -13947,13 +13965,10 @@
         <v>2</v>
       </c>
       <c r="H374" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I374" t="s">
-        <v>1131</v>
+        <v>1004</v>
       </c>
       <c r="J374">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
@@ -13964,7 +13979,7 @@
         <v>533</v>
       </c>
       <c r="C375" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F375" t="s">
         <v>3</v>
@@ -13973,7 +13988,10 @@
         <v>2</v>
       </c>
       <c r="H375" t="s">
-        <v>1006</v>
+        <v>1005</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1131</v>
       </c>
       <c r="J375">
         <v>238</v>
@@ -13984,25 +14002,22 @@
         <v>608</v>
       </c>
       <c r="B376" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C376" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F376" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G376" t="s">
         <v>2</v>
       </c>
       <c r="H376" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I376" t="s">
-        <v>1132</v>
+        <v>1006</v>
       </c>
       <c r="J376">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
@@ -14010,10 +14025,10 @@
         <v>608</v>
       </c>
       <c r="B377" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
       <c r="C377" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F377" t="s">
         <v>1</v>
@@ -14022,13 +14037,13 @@
         <v>2</v>
       </c>
       <c r="H377" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I377" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J377">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
@@ -14036,10 +14051,10 @@
         <v>608</v>
       </c>
       <c r="B378" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C378" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F378" t="s">
         <v>1</v>
@@ -14048,13 +14063,13 @@
         <v>2</v>
       </c>
       <c r="H378" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I378" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J378">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
@@ -14065,16 +14080,19 @@
         <v>617</v>
       </c>
       <c r="C379" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F379" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G379" t="s">
         <v>2</v>
       </c>
       <c r="H379" t="s">
-        <v>1010</v>
+        <v>1009</v>
+      </c>
+      <c r="I379" t="s">
+        <v>1134</v>
       </c>
       <c r="J379">
         <v>241</v>
@@ -14085,10 +14103,10 @@
         <v>608</v>
       </c>
       <c r="B380" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C380" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F380" t="s">
         <v>3</v>
@@ -14097,10 +14115,10 @@
         <v>2</v>
       </c>
       <c r="H380" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J380">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
@@ -14111,7 +14129,7 @@
         <v>618</v>
       </c>
       <c r="C381" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F381" t="s">
         <v>3</v>
@@ -14120,13 +14138,10 @@
         <v>2</v>
       </c>
       <c r="H381" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I381" t="s">
-        <v>1135</v>
+        <v>1011</v>
       </c>
       <c r="J381">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
@@ -14134,45 +14149,48 @@
         <v>608</v>
       </c>
       <c r="B382" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C382" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F382" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G382" t="s">
         <v>2</v>
       </c>
       <c r="H382" t="s">
-        <v>1013</v>
+        <v>1012</v>
+      </c>
+      <c r="I382" t="s">
+        <v>1135</v>
       </c>
       <c r="J382">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B383" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C383" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F383" t="s">
         <v>1</v>
       </c>
       <c r="G383" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H383" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J383">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
@@ -14180,25 +14198,22 @@
         <v>597</v>
       </c>
       <c r="B384" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C384" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F384" t="s">
         <v>1</v>
       </c>
       <c r="G384" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H384" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I384" t="s">
-        <v>1057</v>
+        <v>1014</v>
       </c>
       <c r="J384">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
@@ -14206,10 +14221,10 @@
         <v>597</v>
       </c>
       <c r="B385" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C385" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F385" t="s">
         <v>1</v>
@@ -14218,13 +14233,13 @@
         <v>2</v>
       </c>
       <c r="H385" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I385" t="s">
         <v>1057</v>
       </c>
       <c r="J385">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
@@ -14232,25 +14247,25 @@
         <v>597</v>
       </c>
       <c r="B386" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C386" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F386" t="s">
         <v>1</v>
       </c>
       <c r="G386" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H386" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I386" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="J386">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
@@ -14258,25 +14273,25 @@
         <v>597</v>
       </c>
       <c r="B387" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C387" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F387" t="s">
         <v>1</v>
       </c>
       <c r="G387" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H387" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I387" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="J387">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
@@ -14284,10 +14299,10 @@
         <v>597</v>
       </c>
       <c r="B388" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C388" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F388" t="s">
         <v>1</v>
@@ -14296,13 +14311,13 @@
         <v>2</v>
       </c>
       <c r="H388" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I388" t="s">
         <v>1057</v>
       </c>
       <c r="J388">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
@@ -14310,10 +14325,10 @@
         <v>597</v>
       </c>
       <c r="B389" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C389" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F389" t="s">
         <v>1</v>
@@ -14322,13 +14337,13 @@
         <v>2</v>
       </c>
       <c r="H389" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I389" t="s">
         <v>1057</v>
       </c>
       <c r="J389">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
@@ -14336,10 +14351,10 @@
         <v>597</v>
       </c>
       <c r="B390" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C390" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F390" t="s">
         <v>1</v>
@@ -14348,13 +14363,13 @@
         <v>2</v>
       </c>
       <c r="H390" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I390" t="s">
-        <v>597</v>
+        <v>1057</v>
       </c>
       <c r="J390">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
@@ -14362,25 +14377,25 @@
         <v>597</v>
       </c>
       <c r="B391" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C391" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F391" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G391" t="s">
         <v>2</v>
       </c>
       <c r="H391" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I391" t="s">
-        <v>1136</v>
+        <v>597</v>
       </c>
       <c r="J391">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
@@ -14391,7 +14406,7 @@
         <v>628</v>
       </c>
       <c r="C392" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F392" t="s">
         <v>3</v>
@@ -14400,10 +14415,10 @@
         <v>2</v>
       </c>
       <c r="H392" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I392" t="s">
-        <v>1049</v>
+        <v>1136</v>
       </c>
       <c r="J392">
         <v>254</v>
@@ -14417,19 +14432,19 @@
         <v>628</v>
       </c>
       <c r="C393" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F393" t="s">
         <v>3</v>
       </c>
       <c r="G393" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H393" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I393" t="s">
-        <v>1137</v>
+        <v>1049</v>
       </c>
       <c r="J393">
         <v>254</v>
@@ -14440,25 +14455,25 @@
         <v>597</v>
       </c>
       <c r="B394" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C394" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F394" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G394" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H394" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I394" t="s">
-        <v>1057</v>
+        <v>1137</v>
       </c>
       <c r="J394">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
@@ -14469,19 +14484,19 @@
         <v>629</v>
       </c>
       <c r="C395" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F395" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G395" t="s">
         <v>2</v>
       </c>
       <c r="H395" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I395" t="s">
-        <v>1138</v>
+        <v>1057</v>
       </c>
       <c r="J395">
         <v>255</v>
@@ -14492,25 +14507,25 @@
         <v>597</v>
       </c>
       <c r="B396" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C396" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F396" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G396" t="s">
         <v>2</v>
       </c>
       <c r="H396" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I396" t="s">
-        <v>1057</v>
+        <v>1138</v>
       </c>
       <c r="J396">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
@@ -14518,10 +14533,10 @@
         <v>597</v>
       </c>
       <c r="B397" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C397" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F397" t="s">
         <v>1</v>
@@ -14530,13 +14545,13 @@
         <v>2</v>
       </c>
       <c r="H397" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I397" t="s">
         <v>1057</v>
       </c>
       <c r="J397">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
@@ -14547,19 +14562,19 @@
         <v>631</v>
       </c>
       <c r="C398" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F398" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G398" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H398" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I398" t="s">
-        <v>648</v>
+        <v>1057</v>
       </c>
       <c r="J398">
         <v>257</v>
@@ -14570,25 +14585,25 @@
         <v>597</v>
       </c>
       <c r="B399" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C399" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F399" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G399" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H399" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I399" t="s">
-        <v>1057</v>
+        <v>648</v>
       </c>
       <c r="J399">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
@@ -14596,22 +14611,25 @@
         <v>597</v>
       </c>
       <c r="B400" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C400" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F400" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G400" t="s">
         <v>2</v>
       </c>
       <c r="H400" t="s">
-        <v>1031</v>
+        <v>1030</v>
+      </c>
+      <c r="I400" t="s">
+        <v>1057</v>
       </c>
       <c r="J400">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
@@ -14622,7 +14640,7 @@
         <v>633</v>
       </c>
       <c r="C401" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F401" t="s">
         <v>3</v>
@@ -14631,10 +14649,7 @@
         <v>2</v>
       </c>
       <c r="H401" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I401" t="s">
-        <v>1139</v>
+        <v>1031</v>
       </c>
       <c r="J401">
         <v>259</v>
@@ -14648,7 +14663,7 @@
         <v>633</v>
       </c>
       <c r="C402" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F402" t="s">
         <v>3</v>
@@ -14657,7 +14672,10 @@
         <v>2</v>
       </c>
       <c r="H402" t="s">
-        <v>1033</v>
+        <v>1032</v>
+      </c>
+      <c r="I402" t="s">
+        <v>1139</v>
       </c>
       <c r="J402">
         <v>259</v>
@@ -14668,25 +14686,22 @@
         <v>597</v>
       </c>
       <c r="B403" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C403" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F403" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G403" t="s">
         <v>2</v>
       </c>
       <c r="H403" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I403" t="s">
-        <v>597</v>
+        <v>1033</v>
       </c>
       <c r="J403">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
@@ -14697,19 +14712,19 @@
         <v>634</v>
       </c>
       <c r="C404" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F404" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G404" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H404" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I404" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="J404">
         <v>260</v>
@@ -14720,25 +14735,25 @@
         <v>597</v>
       </c>
       <c r="B405" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C405" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F405" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G405" t="s">
         <v>8</v>
       </c>
       <c r="H405" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I405" t="s">
-        <v>1062</v>
+        <v>648</v>
       </c>
       <c r="J405">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -14746,25 +14761,25 @@
         <v>597</v>
       </c>
       <c r="B406" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C406" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F406" t="s">
         <v>1</v>
       </c>
       <c r="G406" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H406" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I406" t="s">
-        <v>1140</v>
+        <v>1062</v>
       </c>
       <c r="J406">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -14775,19 +14790,19 @@
         <v>636</v>
       </c>
       <c r="C407" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F407" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G407" t="s">
         <v>2</v>
       </c>
       <c r="H407" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I407" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J407">
         <v>262</v>
@@ -14798,25 +14813,25 @@
         <v>597</v>
       </c>
       <c r="B408" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C408" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F408" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G408" t="s">
         <v>2</v>
       </c>
       <c r="H408" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I408" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J408">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -14824,10 +14839,10 @@
         <v>597</v>
       </c>
       <c r="B409" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C409" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F409" t="s">
         <v>1</v>
@@ -14836,10 +14851,13 @@
         <v>2</v>
       </c>
       <c r="H409" t="s">
-        <v>1040</v>
+        <v>1039</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1142</v>
       </c>
       <c r="J409">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -14847,10 +14865,10 @@
         <v>597</v>
       </c>
       <c r="B410" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C410" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F410" t="s">
         <v>1</v>
@@ -14859,13 +14877,10 @@
         <v>2</v>
       </c>
       <c r="H410" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I410" t="s">
-        <v>1143</v>
+        <v>1040</v>
       </c>
       <c r="J410">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
@@ -14873,10 +14888,10 @@
         <v>597</v>
       </c>
       <c r="B411" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C411" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F411" t="s">
         <v>1</v>
@@ -14885,24 +14900,24 @@
         <v>2</v>
       </c>
       <c r="H411" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I411" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J411">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B412" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="C412" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F412" t="s">
         <v>1</v>
@@ -14911,10 +14926,13 @@
         <v>2</v>
       </c>
       <c r="H412" t="s">
-        <v>1043</v>
+        <v>1042</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1144</v>
       </c>
       <c r="J412">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
@@ -14922,10 +14940,10 @@
         <v>609</v>
       </c>
       <c r="B413" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="C413" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F413" t="s">
         <v>1</v>
@@ -14934,13 +14952,10 @@
         <v>2</v>
       </c>
       <c r="H413" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I413" t="s">
-        <v>1145</v>
+        <v>1043</v>
       </c>
       <c r="J413">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
@@ -14951,21 +14966,47 @@
         <v>641</v>
       </c>
       <c r="C414" t="s">
+        <v>596</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1</v>
+      </c>
+      <c r="G414" t="s">
+        <v>2</v>
+      </c>
+      <c r="H414" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I414" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J414">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>609</v>
+      </c>
+      <c r="B415" t="s">
+        <v>641</v>
+      </c>
+      <c r="C415" t="s">
         <v>595</v>
       </c>
-      <c r="F414" t="s">
-        <v>3</v>
-      </c>
-      <c r="G414" t="s">
+      <c r="F415" t="s">
+        <v>3</v>
+      </c>
+      <c r="G415" t="s">
         <v>8</v>
       </c>
-      <c r="H414" t="s">
+      <c r="H415" t="s">
         <v>1045</v>
       </c>
-      <c r="I414" t="s">
+      <c r="I415" t="s">
         <v>648</v>
       </c>
-      <c r="J414">
+      <c r="J415">
         <v>268</v>
       </c>
     </row>
